--- a/contact/U11M.xlsx
+++ b/contact/U11M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E248B259-78D3-4AE8-B55A-794120AB182E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6ED2F3-ED7B-4FDD-B9EF-F29BD75EEE76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U11M" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -142,24 +139,6 @@
     <t>0422 939 938</t>
   </si>
   <si>
-    <t>McPherson, Levi</t>
-  </si>
-  <si>
-    <t>Nolan, Karen</t>
-  </si>
-  <si>
-    <t>0415 765 866</t>
-  </si>
-  <si>
-    <t>karnol@live.com</t>
-  </si>
-  <si>
-    <t>Nolan, Gregory</t>
-  </si>
-  <si>
-    <t>0449 753 934</t>
-  </si>
-  <si>
     <t>Moore, Dustyn</t>
   </si>
   <si>
@@ -289,24 +268,6 @@
     <t>Recent Players</t>
   </si>
   <si>
-    <t>Bullman, Miller</t>
-  </si>
-  <si>
-    <t>Bullman, Andrew</t>
-  </si>
-  <si>
-    <t>0425 765 610</t>
-  </si>
-  <si>
-    <t>andrewbullman1@gmail.com</t>
-  </si>
-  <si>
-    <t>Bullman, Simone</t>
-  </si>
-  <si>
-    <t>0418 140 240</t>
-  </si>
-  <si>
     <t>Kershaw, Leila</t>
   </si>
   <si>
@@ -361,46 +322,46 @@
     <t>hrwoolard@hotmail.com</t>
   </si>
   <si>
-    <t>Historical Players</t>
-  </si>
-  <si>
-    <t>Miller, Cooper</t>
-  </si>
-  <si>
-    <t>Miller, Samantha</t>
-  </si>
-  <si>
-    <t>0425 869 140</t>
-  </si>
-  <si>
-    <t>sam_skadins@hotmail.com</t>
-  </si>
-  <si>
-    <t>Miller, Justin</t>
-  </si>
-  <si>
-    <t>Munro, Boyd</t>
-  </si>
-  <si>
-    <t>Munro, Julia</t>
-  </si>
-  <si>
-    <t>0433 540 858</t>
-  </si>
-  <si>
-    <t>juliammunro@hotmail.com</t>
-  </si>
-  <si>
-    <t>Munro, Brodie</t>
-  </si>
-  <si>
-    <t>0457 001 575</t>
+    <t>Registered Players</t>
+  </si>
+  <si>
+    <t>Cullen, Mason</t>
+  </si>
+  <si>
+    <t>Edgley, Sarah</t>
+  </si>
+  <si>
+    <t>0401 751 118</t>
+  </si>
+  <si>
+    <t>sarahedgley11@gmail.com</t>
+  </si>
+  <si>
+    <t>Tebby, Zac</t>
+  </si>
+  <si>
+    <t>White, Landon</t>
+  </si>
+  <si>
+    <t>White, Shannon</t>
+  </si>
+  <si>
+    <t>0447 969 659</t>
+  </si>
+  <si>
+    <t>White, Guy</t>
+  </si>
+  <si>
+    <t>0447 862 273</t>
+  </si>
+  <si>
+    <t>Nackovski, David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,6 +854,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -900,7 +862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1255,12 +1216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1270,726 +1233,695 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>82</v>
       </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>83</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>87</v>
       </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C30" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U11M.xlsx
+++ b/contact/U11M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6ED2F3-ED7B-4FDD-B9EF-F29BD75EEE76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C9AA9-6069-4F52-929F-7A70A51AFF80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U11M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>Nackovski, David</t>
+  </si>
+  <si>
+    <t>Busse, Aaron</t>
+  </si>
+  <si>
+    <t>Barker, Alison</t>
+  </si>
+  <si>
+    <t>0411 238 508</t>
+  </si>
+  <si>
+    <t>alison_barker2@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1219,21 +1231,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -1248,7 +1258,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1340,588 +1350,602 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>103</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>104</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>61</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>91</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>108</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>109</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>110</v>
       </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>75</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>79</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>80</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>86</v>
       </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>90</v>
       </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>95</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U11M.xlsx
+++ b/contact/U11M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C9AA9-6069-4F52-929F-7A70A51AFF80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F978E2C-A249-4203-B54E-9E35F1F5A1CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U11M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -265,36 +265,6 @@
     <t>0428 647 570</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
-    <t>Kershaw, Leila</t>
-  </si>
-  <si>
-    <t>Parlby, Marley</t>
-  </si>
-  <si>
-    <t>Parlby, Dee</t>
-  </si>
-  <si>
-    <t>0403 485 213</t>
-  </si>
-  <si>
-    <t>djparlby@gmail.com</t>
-  </si>
-  <si>
-    <t>Pickett, Riley</t>
-  </si>
-  <si>
-    <t>Pickett, Marie</t>
-  </si>
-  <si>
-    <t>0423 386 569</t>
-  </si>
-  <si>
-    <t>mariebetti81@hotmail.com</t>
-  </si>
-  <si>
     <t>Tournier, Billy</t>
   </si>
   <si>
@@ -307,9 +277,6 @@
     <t>hollyedunbar@gmail.com</t>
   </si>
   <si>
-    <t>Turin, Darrell</t>
-  </si>
-  <si>
     <t>Woolard, Martin</t>
   </si>
   <si>
@@ -355,9 +322,6 @@
     <t>0447 862 273</t>
   </si>
   <si>
-    <t>Nackovski, David</t>
-  </si>
-  <si>
     <t>Busse, Aaron</t>
   </si>
   <si>
@@ -368,6 +332,30 @@
   </si>
   <si>
     <t>alison_barker2@hotmail.com</t>
+  </si>
+  <si>
+    <t>lorigunn75@gmail.com</t>
+  </si>
+  <si>
+    <t>junior_tauiliili@outlook.com</t>
+  </si>
+  <si>
+    <t>0410 754 338</t>
+  </si>
+  <si>
+    <t>nicoletebby85@hotmail.com</t>
+  </si>
+  <si>
+    <t>0434 445 015</t>
+  </si>
+  <si>
+    <t>belindalee1983@hotmail.com</t>
+  </si>
+  <si>
+    <t>guy@whitehouse3.com</t>
+  </si>
+  <si>
+    <t>pprescott@bmgmetall.com.au</t>
   </si>
 </sst>
 </file>
@@ -1229,23 +1217,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1258,7 +1246,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1301,10 +1289,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1324,10 +1312,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1350,18 +1338,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1370,10 +1358,10 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1393,21 +1381,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1416,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1439,10 +1427,10 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1462,10 +1450,10 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1485,10 +1473,10 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1508,10 +1496,10 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1534,7 +1522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1554,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1577,10 +1565,10 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1600,21 +1588,21 @@
         <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1626,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1634,10 +1622,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1649,18 +1637,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1669,10 +1657,10 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1692,33 +1680,33 @@
         <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1738,21 +1726,21 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1761,10 +1749,10 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1784,168 +1772,13 @@
         <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U11M.xlsx
+++ b/contact/U11M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F978E2C-A249-4203-B54E-9E35F1F5A1CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EFB14-B16A-4F9A-84BF-564187807C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U11M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>pprescott@bmgmetall.com.au</t>
+  </si>
+  <si>
+    <t>Kershaw, Leila</t>
+  </si>
+  <si>
+    <t>0432 556 992</t>
+  </si>
+  <si>
+    <t>kara.montoneri@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1478,16 +1487,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1501,62 +1510,62 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1570,62 +1579,62 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1639,16 +1648,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1662,22 +1671,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1685,22 +1694,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1708,70 +1717,93 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>80</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>10</v>
       </c>
     </row>

--- a/contact/U11M.xlsx
+++ b/contact/U11M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EFB14-B16A-4F9A-84BF-564187807C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59D556F-2C5F-4898-87F8-FD463CAE02DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -356,15 +356,6 @@
   </si>
   <si>
     <t>pprescott@bmgmetall.com.au</t>
-  </si>
-  <si>
-    <t>Kershaw, Leila</t>
-  </si>
-  <si>
-    <t>0432 556 992</t>
-  </si>
-  <si>
-    <t>kara.montoneri@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1487,16 +1478,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1510,62 +1501,62 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1579,22 +1570,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1781,29 +1772,6 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s">
         <v>10</v>
       </c>
     </row>

--- a/contact/U11M.xlsx
+++ b/contact/U11M.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59D556F-2C5F-4898-87F8-FD463CAE02DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B66710-007C-4A10-829C-4FEEE4BFB53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="119">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -356,6 +356,27 @@
   </si>
   <si>
     <t>pprescott@bmgmetall.com.au</t>
+  </si>
+  <si>
+    <t>Hobson, Ethan</t>
+  </si>
+  <si>
+    <t>Hobson, Sherrin</t>
+  </si>
+  <si>
+    <t>0411 631 537</t>
+  </si>
+  <si>
+    <t>sherrinw@hotmail.com.au</t>
+  </si>
+  <si>
+    <t>Hobson, Joshua</t>
+  </si>
+  <si>
+    <t>0413 126 864</t>
+  </si>
+  <si>
+    <t>hobson123@bigpond.com</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1478,85 +1499,85 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1570,22 +1591,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1593,62 +1614,62 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1662,16 +1683,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1685,22 +1706,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1708,22 +1729,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1731,47 +1752,70 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
         <v>10</v>
       </c>
     </row>

--- a/contact/U11M.xlsx
+++ b/contact/U11M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B66710-007C-4A10-829C-4FEEE4BFB53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD4FA8-E5B5-4AFF-8E25-9E469E5B05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
